--- a/cohen_d.xlsx
+++ b/cohen_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee545228e8050611/r/effectiveness-meta-shiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{A1497853-AA28-394C-9F4E-8285CAB54BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D2B4AD-3C21-524D-986B-05E6BA26E0EA}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{A1497853-AA28-394C-9F4E-8285CAB54BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54CE63E-2D74-214B-9FE0-7AC5008A4B18}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="41860" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,12 +107,40 @@
     <t>1. Calculate pre-treatment and post-treatment means and standard deviations in your sample and any relevant subgroups.</t>
   </si>
   <si>
+    <t>Reference:</t>
+  </si>
+  <si>
+    <t>2. Calculate the r correlation coefficient between the pre and post-treatment measures in each relevant sample. Use Pearson's if normally distributed. Use Spearman's if not normally distributed (most common in clinical measures).</t>
+  </si>
+  <si>
+    <t>3. Input the sample parameters in columns C, D, E, F, G. Enter the correlation (r) between pre-post measures in column K.</t>
+  </si>
+  <si>
+    <t>4. The pre-post effect size will be automatically computed in column J; with Lower and Higher 95% confidence intervals in columns P and Q.</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11135-006-9057-z</t>
+  </si>
+  <si>
+    <t>EFFECT SIZE CALCULATOR (95% CI with critical values)</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ESpreSD</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Minami, T., Serlin, R. C., Wampold, B. E., Kircher, J. C., &amp; Brown, G. J. (2008). Using clinical trials to benchmark effects produced in clinical practice. </t>
     </r>
     <r>
@@ -132,39 +160,6 @@
       </rPr>
       <t>(4), 513.</t>
     </r>
-  </si>
-  <si>
-    <t>Reference:</t>
-  </si>
-  <si>
-    <t>2. Calculate the r correlation coefficient between the pre and post-treatment measures in each relevant sample. Use Pearson's if normally distributed. Use Spearman's if not normally distributed (most common in clinical measures).</t>
-  </si>
-  <si>
-    <t>3. Input the sample parameters in columns C, D, E, F, G. Enter the correlation (r) between pre-post measures in column K.</t>
-  </si>
-  <si>
-    <t>4. The pre-post effect size will be automatically computed in column J; with Lower and Higher 95% confidence intervals in columns P and Q.</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007/s11135-006-9057-z</t>
-  </si>
-  <si>
-    <t>EFFECT SIZE CALCULATOR (95% CI with critical values)</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>ESpreSD</t>
   </si>
 </sst>
 </file>
@@ -555,6 +550,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,7 +880,7 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -901,22 +900,22 @@
   <sheetData>
     <row r="1" spans="1:24" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="F1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -951,13 +950,13 @@
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -972,7 +971,7 @@
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -1024,7 +1023,7 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>12</v>
@@ -1074,7 +1073,7 @@
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
@@ -1102,10 +1101,10 @@
     </row>
     <row r="15" spans="1:24" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -1171,10 +1170,10 @@
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>34</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>

--- a/cohen_d.xlsx
+++ b/cohen_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee545228e8050611/r/effectiveness-meta-shiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{A1497853-AA28-394C-9F4E-8285CAB54BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54CE63E-2D74-214B-9FE0-7AC5008A4B18}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{A1497853-AA28-394C-9F4E-8285CAB54BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA54F62-42DF-4541-96AA-75F94EDF7B3F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="41860" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,10 +550,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,7 +876,7 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1107,16 +1103,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>1646</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>14.96</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="F15" s="36">
-        <v>5</v>
+        <v>10.15</v>
       </c>
       <c r="G15" s="36">
         <v>0</v>
@@ -1124,42 +1120,42 @@
       <c r="H15" s="10"/>
       <c r="I15" s="38">
         <f>(D15-F15)/E15</f>
-        <v>2.25</v>
+        <v>1.4664634146341466</v>
       </c>
       <c r="J15" s="39">
         <f>(1-3/(4*C15-5))*I15</f>
-        <v>2.16</v>
+        <v>1.4657947126666893</v>
       </c>
       <c r="K15" s="17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="12">
         <f>K15+K15*(1-K15*K15)/2/(C15-4)</f>
-        <v>0.41050000000000003</v>
+        <v>0.50011419001218027</v>
       </c>
       <c r="M15" s="3">
         <f>2*(1-L15)/C15+J15*J15/(2*C15)</f>
-        <v>0.17559</v>
+        <v>1.2600538820270052E-3</v>
       </c>
       <c r="N15" s="3">
         <f>J15/M15</f>
-        <v>12.301383905689391</v>
+        <v>1163.2793911231129</v>
       </c>
       <c r="O15" s="3">
         <f>1/M15</f>
-        <v>5.695085141522866</v>
+        <v>793.61685580566962</v>
       </c>
       <c r="P15" s="8">
         <f>J15-1.96*SQRT(M15)</f>
-        <v>1.3386921746385223</v>
+        <v>1.3962201268382781</v>
       </c>
       <c r="Q15" s="8">
         <f>J15+1.96*SQRT(M15)</f>
-        <v>2.981307825361478</v>
+        <v>1.5353692984951004</v>
       </c>
       <c r="R15" s="2">
         <f>1.96*SQRT(M15)</f>
-        <v>0.82130782536147795</v>
+        <v>6.9574585828411098E-2</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
